--- a/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Implicit Retrieval/Tadpole_ET_summary_IR_500ms_NoLabels_.5-1.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Implicit Retrieval/Tadpole_ET_summary_IR_500ms_NoLabels_.5-1.xlsx
@@ -13,6 +13,10 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -349,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AO89"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,67 +6739,67 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F52">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.02</v>
+      </c>
+      <c r="I52">
+        <v>0.48</v>
+      </c>
+      <c r="J52">
+        <v>0.35</v>
+      </c>
+      <c r="K52">
         <v>0.15</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
       <c r="L52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="O52">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="V52">
         <v>0.5</v>
@@ -6803,55 +6808,55 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="Y52">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA52">
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AG52">
         <v>0</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AI52">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AK52">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="AL52">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="AM52">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -6859,141 +6864,141 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B53">
+        <v>0.5</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.23</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>0.3</v>
+      </c>
+      <c r="J53">
+        <v>0.32</v>
+      </c>
+      <c r="K53">
+        <v>0.18</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0.1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0.33</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0.42</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0.47</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.46</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0.5</v>
+      </c>
+      <c r="AF53">
+        <v>0.2</v>
+      </c>
+      <c r="AG53">
+        <v>0.22</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0.5</v>
+      </c>
+      <c r="AJ53">
+        <v>0.2</v>
+      </c>
+      <c r="AK53">
         <v>0.27</v>
       </c>
-      <c r="C53">
-        <v>0.23</v>
-      </c>
-      <c r="D53">
-        <v>0.33</v>
-      </c>
-      <c r="E53">
-        <v>0.17</v>
-      </c>
-      <c r="F53">
-        <v>0.39</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
         <v>0.02</v>
       </c>
-      <c r="I53">
+      <c r="AO53">
         <v>0.48</v>
-      </c>
-      <c r="J53">
-        <v>0.35</v>
-      </c>
-      <c r="K53">
-        <v>0.15</v>
-      </c>
-      <c r="L53">
-        <v>0.5</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0.27</v>
-      </c>
-      <c r="O53">
-        <v>0.23</v>
-      </c>
-      <c r="P53">
-        <v>0.4</v>
-      </c>
-      <c r="Q53">
-        <v>0.1</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0.37</v>
-      </c>
-      <c r="T53">
-        <v>0.23</v>
-      </c>
-      <c r="U53">
-        <v>0.27</v>
-      </c>
-      <c r="V53">
-        <v>0.5</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0.2</v>
-      </c>
-      <c r="Y53">
-        <v>0.3</v>
-      </c>
-      <c r="Z53">
-        <v>0.5</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0.24</v>
-      </c>
-      <c r="AC53">
-        <v>0.26</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0.5</v>
-      </c>
-      <c r="AF53">
-        <v>0.38</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0.27</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0.24</v>
-      </c>
-      <c r="AK53">
-        <v>0.26</v>
-      </c>
-      <c r="AL53">
-        <v>0.5</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0.5</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D54">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7005,37 +7010,37 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N54">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -7044,13 +7049,13 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W54">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -7059,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -7071,85 +7076,85 @@
         <v>0</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AE54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AH54">
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AK54">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AL54">
         <v>0</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN54">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AO54">
-        <v>0.48</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.04</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.09</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.02</v>
+      </c>
+      <c r="K55">
+        <v>0.21</v>
+      </c>
+      <c r="L55">
+        <v>0.37</v>
+      </c>
+      <c r="M55">
+        <v>0.13</v>
+      </c>
+      <c r="N55">
         <v>0.03</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0.08</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0.12</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
       <c r="O55">
         <v>0</v>
       </c>
@@ -7163,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V55">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -7181,10 +7186,10 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Z55">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -7196,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="AD55">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -7208,108 +7213,108 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI55">
         <v>0</v>
       </c>
       <c r="AJ55">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="AK55">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="AL55">
         <v>0</v>
       </c>
       <c r="AM55">
-        <v>7.0000000000000007E-2</v>
+        <v>0.46</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO55">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D56">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F56">
-        <v>0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
+        <v>0.46</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>0.09</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0.02</v>
-      </c>
-      <c r="K56">
-        <v>0.21</v>
-      </c>
-      <c r="L56">
-        <v>0.37</v>
-      </c>
-      <c r="M56">
-        <v>0.13</v>
-      </c>
       <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0.5</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0.44</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0.3</v>
+      </c>
+      <c r="W56">
         <v>0.03</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0.5</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0.5</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
       <c r="X56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y56">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -7318,37 +7323,37 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AH56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI56">
         <v>0</v>
       </c>
       <c r="AJ56">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="AK56">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="AL56">
         <v>0</v>
       </c>
       <c r="AM56">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AN56">
         <v>0.5</v>
@@ -7359,138 +7364,138 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C57">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>7.0000000000000007E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I57">
+        <v>0.36</v>
+      </c>
+      <c r="J57">
+        <v>0.45</v>
+      </c>
+      <c r="K57">
+        <v>0.05</v>
+      </c>
+      <c r="L57">
+        <v>0.5</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.2</v>
+      </c>
+      <c r="O57">
+        <v>0.24</v>
+      </c>
+      <c r="P57">
+        <v>0.35</v>
+      </c>
+      <c r="Q57">
+        <v>0.12</v>
+      </c>
+      <c r="R57">
+        <v>0.12</v>
+      </c>
+      <c r="S57">
+        <v>0.38</v>
+      </c>
+      <c r="T57">
+        <v>0.5</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0.5</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0.5</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0.5</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0.5</v>
+      </c>
+      <c r="AD57">
         <v>0.46</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0.09</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0.5</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0.44</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
         <v>0.3</v>
       </c>
-      <c r="W57">
+      <c r="AG57">
+        <v>0.2</v>
+      </c>
+      <c r="AH57">
+        <v>0.47</v>
+      </c>
+      <c r="AI57">
         <v>0.03</v>
       </c>
-      <c r="X57">
-        <v>0.5</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0.49</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0.5</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0.39</v>
-      </c>
-      <c r="AG57">
-        <v>0.11</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
       <c r="AJ57">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="AK57">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AL57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM57">
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B58">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="D58">
         <v>0.5</v>
@@ -7505,64 +7510,64 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.14000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="I58">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N58">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O58">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="S58">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Z58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -7571,57 +7576,57 @@
         <v>0.5</v>
       </c>
       <c r="AD58">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AG58">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH58">
+        <v>0.5</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0.03</v>
+      </c>
+      <c r="AK58">
         <v>0.47</v>
       </c>
-      <c r="AI58">
-        <v>0.03</v>
-      </c>
-      <c r="AJ58">
-        <v>0.5</v>
-      </c>
-      <c r="AK58">
-        <v>0</v>
-      </c>
       <c r="AL58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AN58">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AO58">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B59">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="C59">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F59">
         <v>0.5</v>
@@ -7630,28 +7635,28 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M59">
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -7660,43 +7665,43 @@
         <v>0.5</v>
       </c>
       <c r="R59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="U59">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="Y59">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE59">
         <v>0</v>
@@ -7708,118 +7713,118 @@
         <v>0</v>
       </c>
       <c r="AH59">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AJ59">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="AK59">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM59">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="AN59">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="AO59">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B60">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C60">
+        <v>0.27</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.1</v>
+      </c>
+      <c r="G60">
         <v>0.3</v>
       </c>
-      <c r="D60">
-        <v>0.24</v>
-      </c>
-      <c r="E60">
-        <v>0.26</v>
-      </c>
-      <c r="F60">
-        <v>0.5</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
+        <v>0.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.08</v>
+      </c>
+      <c r="K60">
+        <v>0.42</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0.5</v>
+      </c>
+      <c r="N60">
+        <v>0.22</v>
+      </c>
+      <c r="O60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0.5</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0.17</v>
+      </c>
+      <c r="U60">
+        <v>0.33</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0.37</v>
+      </c>
+      <c r="Y60">
         <v>0.13</v>
       </c>
-      <c r="I60">
-        <v>0.37</v>
-      </c>
-      <c r="J60">
-        <v>0.3</v>
-      </c>
-      <c r="K60">
-        <v>0.2</v>
-      </c>
-      <c r="L60">
-        <v>0.22</v>
-      </c>
-      <c r="M60">
+      <c r="Z60">
+        <v>0.35</v>
+      </c>
+      <c r="AA60">
+        <v>0.15</v>
+      </c>
+      <c r="AB60">
+        <v>0.01</v>
+      </c>
+      <c r="AC60">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0.48</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0.5</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0.5</v>
-      </c>
-      <c r="T60">
-        <v>0.27</v>
-      </c>
-      <c r="U60">
-        <v>0.23</v>
-      </c>
-      <c r="V60">
-        <v>0.5</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0.5</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0.5</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0.5</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
       <c r="AD60">
         <v>0.5</v>
       </c>
@@ -7827,57 +7832,57 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG60">
         <v>0</v>
       </c>
       <c r="AH60">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AI60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AJ60">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="AK60">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AL60">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AM60">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AN60">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AO60">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B61">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="C61">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F61">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G61">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0.5</v>
@@ -7886,22 +7891,22 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="K61">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="M61">
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N61">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -7910,40 +7915,40 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="Y61">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA61">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AB61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>0.5</v>
@@ -7952,423 +7957,423 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AG61">
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI61">
         <v>0</v>
       </c>
       <c r="AJ61">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="AK61">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="AL61">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AM61">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN61">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="AO61">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B62">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D62">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="E62">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J62">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="K62">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L62">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="M62">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="V62">
-        <v>0.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="Y62">
         <v>0</v>
       </c>
       <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0.5</v>
+      </c>
+      <c r="AB62">
+        <v>0.5</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0.35</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA62">
-        <v>0.36</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0.5</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0.5</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
       <c r="AJ62">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AK62">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AL62">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0.43</v>
+      </c>
+      <c r="AO62">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN62">
-        <v>0.24</v>
-      </c>
-      <c r="AO62">
-        <v>0.26</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B63">
+        <v>0.3</v>
+      </c>
+      <c r="C63">
         <v>0.2</v>
       </c>
-      <c r="C63">
-        <v>0.3</v>
-      </c>
       <c r="D63">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="E63">
-        <v>0.33</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F63">
+        <v>0.44</v>
+      </c>
+      <c r="G63">
+        <v>0.06</v>
+      </c>
+      <c r="H63">
+        <v>0.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.19</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0.5</v>
+      </c>
+      <c r="N63">
         <v>0.39</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0.43</v>
-      </c>
-      <c r="I63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J63">
+      <c r="O63">
+        <v>0.11</v>
+      </c>
+      <c r="P63">
+        <v>0.5</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0.35</v>
+      </c>
+      <c r="S63">
+        <v>0.15</v>
+      </c>
+      <c r="T63">
+        <v>0.39</v>
+      </c>
+      <c r="U63">
+        <v>0.11</v>
+      </c>
+      <c r="V63">
+        <v>0.27</v>
+      </c>
+      <c r="W63">
+        <v>0.23</v>
+      </c>
+      <c r="X63">
         <v>0.36</v>
       </c>
-      <c r="K63">
+      <c r="Y63">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L63">
-        <v>0.5</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0.13</v>
-      </c>
-      <c r="O63">
-        <v>0.37</v>
-      </c>
-      <c r="P63">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0.5</v>
+      </c>
+      <c r="AB63">
+        <v>0.08</v>
+      </c>
+      <c r="AC63">
+        <v>0.42</v>
+      </c>
+      <c r="AD63">
         <v>0.32</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U63">
-        <v>0.43</v>
-      </c>
-      <c r="V63">
+      <c r="AE63">
+        <v>0.18</v>
+      </c>
+      <c r="AF63">
+        <v>0.36</v>
+      </c>
+      <c r="AG63">
         <v>0.14000000000000001</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0.41</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0.5</v>
-      </c>
-      <c r="AB63">
-        <v>0.5</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0.35</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
       <c r="AH63">
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>0.14000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AJ63">
         <v>0</v>
       </c>
       <c r="AK63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL63">
         <v>0</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN63">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="AO63">
-        <v>7.0000000000000007E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B64">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C64">
+        <v>0.43</v>
+      </c>
+      <c r="D64">
+        <v>0.5</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.47</v>
+      </c>
+      <c r="I64">
+        <v>0.03</v>
+      </c>
+      <c r="J64">
+        <v>0.5</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0.17</v>
+      </c>
+      <c r="M64">
+        <v>0.33</v>
+      </c>
+      <c r="N64">
+        <v>0.19</v>
+      </c>
+      <c r="O64">
+        <v>0.31</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T64">
+        <v>0.5</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0.2</v>
+      </c>
+      <c r="W64">
         <v>0.3</v>
       </c>
-      <c r="C64">
-        <v>0.2</v>
-      </c>
-      <c r="D64">
-        <v>0.36</v>
-      </c>
-      <c r="E64">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F64">
-        <v>0.44</v>
-      </c>
-      <c r="G64">
-        <v>0.06</v>
-      </c>
-      <c r="H64">
-        <v>0.5</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0.19</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0.5</v>
-      </c>
-      <c r="N64">
-        <v>0.39</v>
-      </c>
-      <c r="O64">
-        <v>0.11</v>
-      </c>
-      <c r="P64">
-        <v>0.5</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
+      <c r="X64">
+        <v>0.33</v>
+      </c>
+      <c r="Y64">
+        <v>0.17</v>
+      </c>
+      <c r="Z64">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA64">
+        <v>0.21</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0.27</v>
+      </c>
+      <c r="AD64">
+        <v>0.18</v>
+      </c>
+      <c r="AE64">
+        <v>0.32</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>0.35</v>
       </c>
-      <c r="S64">
+      <c r="AK64">
         <v>0.15</v>
       </c>
-      <c r="T64">
-        <v>0.39</v>
-      </c>
-      <c r="U64">
-        <v>0.11</v>
-      </c>
-      <c r="V64">
-        <v>0.27</v>
-      </c>
-      <c r="W64">
-        <v>0.23</v>
-      </c>
-      <c r="X64">
-        <v>0.36</v>
-      </c>
-      <c r="Y64">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0.5</v>
-      </c>
-      <c r="AB64">
-        <v>0.08</v>
-      </c>
-      <c r="AC64">
-        <v>0.42</v>
-      </c>
-      <c r="AD64">
-        <v>0.32</v>
-      </c>
-      <c r="AE64">
-        <v>0.18</v>
-      </c>
-      <c r="AF64">
-        <v>0.36</v>
-      </c>
-      <c r="AG64">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>0.5</v>
-      </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
-      <c r="AK64">
-        <v>0.5</v>
-      </c>
       <c r="AL64">
         <v>0</v>
       </c>
       <c r="AM64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN64">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="AO64">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B65">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -8380,28 +8385,28 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -8413,43 +8418,43 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
       <c r="V65">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AD65">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AE65">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -8464,10 +8469,10 @@
         <v>0</v>
       </c>
       <c r="AJ65">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AK65">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>0</v>
@@ -8476,39 +8481,39 @@
         <v>0</v>
       </c>
       <c r="AN65">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AO65">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -8517,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8535,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -8547,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="W66">
         <v>0</v>
@@ -8559,13 +8564,13 @@
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -8577,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -8598,109 +8603,109 @@
         <v>0</v>
       </c>
       <c r="AM66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN66">
         <v>0</v>
       </c>
       <c r="AO66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="C67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.18</v>
+      </c>
+      <c r="G67">
+        <v>0.32</v>
+      </c>
+      <c r="H67">
+        <v>0.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.39</v>
+      </c>
+      <c r="K67">
+        <v>0.11</v>
+      </c>
+      <c r="L67">
+        <v>0.36</v>
+      </c>
+      <c r="M67">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N67">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.36</v>
+      </c>
+      <c r="P67">
+        <v>0.41</v>
+      </c>
+      <c r="Q67">
+        <v>0.09</v>
+      </c>
+      <c r="R67">
+        <v>0.22</v>
+      </c>
+      <c r="S67">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T67">
+        <v>0.33</v>
+      </c>
+      <c r="U67">
+        <v>0.17</v>
+      </c>
+      <c r="V67">
+        <v>0.5</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0.2</v>
+      </c>
+      <c r="Y67">
+        <v>0.3</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0.21</v>
+      </c>
+      <c r="AB67">
         <v>0.19</v>
       </c>
-      <c r="E67">
+      <c r="AC67">
         <v>0.31</v>
       </c>
-      <c r="F67">
-        <v>0.5</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0.23</v>
-      </c>
-      <c r="I67">
-        <v>0.27</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0.5</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0.39</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
+      <c r="AD67">
         <v>0.19</v>
       </c>
-      <c r="AA67">
+      <c r="AE67">
         <v>0.31</v>
       </c>
-      <c r="AB67">
-        <v>0.02</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
       <c r="AF67">
         <v>0.5</v>
       </c>
@@ -8708,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AJ67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK67">
         <v>0</v>
@@ -8723,36 +8728,36 @@
         <v>0</v>
       </c>
       <c r="AM67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B68">
-        <v>0.39</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F68">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G68">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="H68">
         <v>0.5</v>
@@ -8761,192 +8766,192 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.39</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K68">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="L68">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>0.14000000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="N68">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="P68">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="Q68">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0.01</v>
+      </c>
+      <c r="W68">
+        <v>0.25</v>
+      </c>
+      <c r="X68">
+        <v>0.12</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0.24</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0.2</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0.5</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0.43</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0.08</v>
+      </c>
+      <c r="AO68">
         <v>0.28000000000000003</v>
-      </c>
-      <c r="T68">
-        <v>0.33</v>
-      </c>
-      <c r="U68">
-        <v>0.17</v>
-      </c>
-      <c r="V68">
-        <v>0.5</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0.2</v>
-      </c>
-      <c r="Y68">
-        <v>0.3</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0.21</v>
-      </c>
-      <c r="AB68">
-        <v>0.19</v>
-      </c>
-      <c r="AC68">
-        <v>0.31</v>
-      </c>
-      <c r="AD68">
-        <v>0.19</v>
-      </c>
-      <c r="AE68">
-        <v>0.31</v>
-      </c>
-      <c r="AF68">
-        <v>0.5</v>
-      </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0.37</v>
-      </c>
-      <c r="AI68">
-        <v>0.13</v>
-      </c>
-      <c r="AJ68">
-        <v>0.5</v>
-      </c>
-      <c r="AK68">
-        <v>0</v>
-      </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
-      <c r="AM68">
-        <v>0</v>
-      </c>
-      <c r="AN68">
-        <v>0.5</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B69">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J69">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="K69">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="M69">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="O69">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="V69">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="W69">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
         <v>0.12</v>
       </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0.24</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
       <c r="AC69">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AD69">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -8955,358 +8960,358 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH69">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AI69">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AJ69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK69">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AL69">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AM69">
         <v>0</v>
       </c>
       <c r="AN69">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AO69">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I70">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0.5</v>
+      </c>
+      <c r="L70">
+        <v>0.31</v>
+      </c>
+      <c r="M70">
+        <v>0.19</v>
+      </c>
+      <c r="N70">
+        <v>0.31</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0.5</v>
+      </c>
+      <c r="R70">
+        <v>0.48</v>
+      </c>
+      <c r="S70">
+        <v>0.02</v>
+      </c>
+      <c r="T70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U70">
         <v>0.21</v>
       </c>
-      <c r="K70">
-        <v>0.11</v>
-      </c>
-      <c r="L70">
-        <v>0.17</v>
-      </c>
-      <c r="M70">
-        <v>0.33</v>
-      </c>
-      <c r="N70">
-        <v>0.26</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0.01</v>
-      </c>
-      <c r="Q70">
-        <v>0.49</v>
-      </c>
-      <c r="R70">
-        <v>0.47</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0.4</v>
+      </c>
+      <c r="Y70">
+        <v>0.1</v>
+      </c>
+      <c r="Z70">
+        <v>0.5</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0.5</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0.5</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0.23</v>
+      </c>
+      <c r="AG70">
+        <v>0.27</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0.5</v>
+      </c>
+      <c r="AL70">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U70">
+      <c r="AM70">
         <v>0.43</v>
       </c>
-      <c r="V70">
-        <v>0.13</v>
-      </c>
-      <c r="W70">
-        <v>0.27</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0.12</v>
-      </c>
-      <c r="AC70">
-        <v>0.38</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0.5</v>
-      </c>
-      <c r="AH70">
-        <v>0.05</v>
-      </c>
-      <c r="AI70">
-        <v>0.45</v>
-      </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
-      <c r="AK70">
-        <v>0.16</v>
-      </c>
-      <c r="AL70">
-        <v>0.5</v>
-      </c>
-      <c r="AM70">
-        <v>0</v>
-      </c>
       <c r="AN70">
         <v>0</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.18</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C71">
+        <v>0.21</v>
+      </c>
+      <c r="D71">
+        <v>0.02</v>
+      </c>
+      <c r="E71">
+        <v>0.02</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.19</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0.5</v>
+      </c>
+      <c r="J71">
+        <v>0.5</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.36</v>
+      </c>
+      <c r="N71">
+        <v>0.5</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0.5</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0.5</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0.5</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0.02</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
         <v>0.32</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
+      <c r="Z71">
+        <v>0.5</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0.5</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0.06</v>
+      </c>
+      <c r="AE71">
+        <v>0.44</v>
+      </c>
+      <c r="AF71">
+        <v>0.09</v>
+      </c>
+      <c r="AG71">
+        <v>0.41</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
         <v>0.33</v>
       </c>
-      <c r="F71">
-        <v>0.5</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0.4</v>
-      </c>
-      <c r="I71">
-        <v>0.1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0.5</v>
-      </c>
-      <c r="L71">
-        <v>0.31</v>
-      </c>
-      <c r="M71">
-        <v>0.19</v>
-      </c>
-      <c r="N71">
-        <v>0.31</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0.5</v>
-      </c>
-      <c r="R71">
-        <v>0.48</v>
-      </c>
-      <c r="S71">
-        <v>0.02</v>
-      </c>
-      <c r="T71">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U71">
-        <v>0.21</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0.4</v>
-      </c>
-      <c r="Y71">
-        <v>0.1</v>
-      </c>
-      <c r="Z71">
-        <v>0.5</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0.5</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0.5</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0.23</v>
-      </c>
-      <c r="AG71">
-        <v>0.27</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
       <c r="AJ71">
         <v>0</v>
       </c>
       <c r="AK71">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="AL71">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AM71">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AN71">
         <v>0</v>
       </c>
       <c r="AO71">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B72">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C72">
+        <v>0.36</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0.25</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
         <v>0.21</v>
       </c>
-      <c r="D72">
-        <v>0.02</v>
-      </c>
-      <c r="E72">
-        <v>0.02</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0.19</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0.5</v>
-      </c>
-      <c r="J72">
-        <v>0.5</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M72">
-        <v>0.36</v>
-      </c>
-      <c r="N72">
-        <v>0.5</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0.5</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0.5</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0.02</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
       <c r="Y72">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Z72">
         <v>0.5</v>
@@ -9315,63 +9320,63 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC72">
         <v>0</v>
       </c>
       <c r="AD72">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AE72">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="AF72">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AG72">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AH72">
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AJ72">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AK72">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="AL72">
         <v>0</v>
       </c>
       <c r="AM72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN72">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B73">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C73">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9380,31 +9385,31 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="O73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -9422,546 +9427,546 @@
         <v>0</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="X73">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="Y73">
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA73">
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AD73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AE73">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH73">
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ73">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AK73">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>0</v>
       </c>
       <c r="AM73">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AN73">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AO73">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B74">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="C74">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0.23</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.32</v>
+      </c>
+      <c r="I74">
+        <v>0.18</v>
+      </c>
+      <c r="J74">
+        <v>0.09</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0.5</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0.43</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
         <v>0.2</v>
       </c>
-      <c r="E74">
+      <c r="Q74">
+        <v>0.16</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
         <v>0.12</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0.43</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0.43</v>
-      </c>
-      <c r="K74">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L74">
-        <v>0.17</v>
-      </c>
-      <c r="M74">
-        <v>0.08</v>
-      </c>
-      <c r="N74">
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0.09</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0.4</v>
+      </c>
+      <c r="X74">
+        <v>0.22</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0.5</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0.25</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0.1</v>
+      </c>
+      <c r="AF74">
+        <v>0.11</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
         <v>0.42</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0.1</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0.01</v>
-      </c>
-      <c r="W74">
-        <v>0.21</v>
-      </c>
-      <c r="X74">
-        <v>0.5</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>0.15</v>
-      </c>
-      <c r="AC74">
-        <v>0.35</v>
-      </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <v>0.31</v>
-      </c>
-      <c r="AF74">
-        <v>0.22</v>
-      </c>
-      <c r="AG74">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-      <c r="AI74">
-        <v>0.5</v>
-      </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
-      <c r="AK74">
-        <v>0</v>
-      </c>
       <c r="AL74">
         <v>0</v>
       </c>
       <c r="AM74">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AN74">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AO74">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C75">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="E75">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F75">
+        <v>0.46</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.27</v>
+      </c>
+      <c r="I75">
         <v>0.23</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.15</v>
+      </c>
+      <c r="L75">
+        <v>0.38</v>
+      </c>
+      <c r="M75">
+        <v>0.12</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0.49</v>
+      </c>
+      <c r="P75">
+        <v>0.5</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0.5</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0.34</v>
+      </c>
+      <c r="U75">
+        <v>0.16</v>
+      </c>
+      <c r="V75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W75">
+        <v>0.43</v>
+      </c>
+      <c r="X75">
         <v>0.32</v>
       </c>
-      <c r="I75">
+      <c r="Y75">
         <v>0.18</v>
       </c>
-      <c r="J75">
-        <v>0.09</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0.5</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
+      <c r="Z75">
+        <v>0.5</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0.5</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0.5</v>
+      </c>
+      <c r="AF75">
+        <v>0.22</v>
+      </c>
+      <c r="AG75">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI75">
         <v>0.43</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
+      <c r="AJ75">
         <v>0.2</v>
       </c>
-      <c r="Q75">
-        <v>0.16</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0.12</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0.09</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0.4</v>
-      </c>
-      <c r="X75">
-        <v>0.22</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>0.5</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>0.25</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0.1</v>
-      </c>
-      <c r="AF75">
-        <v>0.11</v>
-      </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-      <c r="AI75">
-        <v>0</v>
-      </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL75">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AM75">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AN75">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="AO75">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B76">
+        <v>0.19</v>
+      </c>
+      <c r="C76">
+        <v>0.31</v>
+      </c>
+      <c r="D76">
+        <v>0.11</v>
+      </c>
+      <c r="E76">
+        <v>0.39</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0.43</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.12</v>
+      </c>
+      <c r="K76">
+        <v>0.37</v>
+      </c>
+      <c r="L76">
+        <v>0.2</v>
+      </c>
+      <c r="M76">
+        <v>0.3</v>
+      </c>
+      <c r="N76">
+        <v>0.39</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0.44</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0.34</v>
+      </c>
+      <c r="T76">
+        <v>0.5</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0.5</v>
+      </c>
+      <c r="X76">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y76">
+        <v>0.22</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0.5</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0.39</v>
+      </c>
+      <c r="AE76">
+        <v>0.11</v>
+      </c>
+      <c r="AF76">
+        <v>0.18</v>
+      </c>
+      <c r="AG76">
+        <v>0.32</v>
+      </c>
+      <c r="AH76">
+        <v>0.17</v>
+      </c>
+      <c r="AI76">
         <v>0.33</v>
       </c>
-      <c r="C76">
-        <v>0.17</v>
-      </c>
-      <c r="D76">
-        <v>0.36</v>
-      </c>
-      <c r="E76">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F76">
-        <v>0.46</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0.27</v>
-      </c>
-      <c r="I76">
-        <v>0.23</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0.15</v>
-      </c>
-      <c r="L76">
-        <v>0.38</v>
-      </c>
-      <c r="M76">
-        <v>0.12</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0.49</v>
-      </c>
-      <c r="P76">
-        <v>0.5</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0.5</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0.34</v>
-      </c>
-      <c r="U76">
-        <v>0.16</v>
-      </c>
-      <c r="V76">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W76">
-        <v>0.43</v>
-      </c>
-      <c r="X76">
-        <v>0.32</v>
-      </c>
-      <c r="Y76">
-        <v>0.18</v>
-      </c>
-      <c r="Z76">
-        <v>0.5</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0.5</v>
-      </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <v>0.5</v>
-      </c>
-      <c r="AF76">
-        <v>0.22</v>
-      </c>
-      <c r="AG76">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AH76">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI76">
-        <v>0.43</v>
-      </c>
       <c r="AJ76">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AK76">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AL76">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="AM76">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="AN76">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AO76">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B77">
+        <v>0.25</v>
+      </c>
+      <c r="C77">
+        <v>0.25</v>
+      </c>
+      <c r="D77">
+        <v>0.26</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0.31</v>
+      </c>
+      <c r="I77">
         <v>0.19</v>
       </c>
-      <c r="C77">
-        <v>0.31</v>
-      </c>
-      <c r="D77">
+      <c r="J77">
         <v>0.11</v>
       </c>
-      <c r="E77">
-        <v>0.39</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
+      <c r="K77">
+        <v>0.3</v>
+      </c>
+      <c r="L77">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M77">
         <v>0.43</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0.12</v>
-      </c>
-      <c r="K77">
-        <v>0.37</v>
-      </c>
-      <c r="L77">
-        <v>0.2</v>
-      </c>
-      <c r="M77">
-        <v>0.3</v>
-      </c>
       <c r="N77">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="P77">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="S77">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="T77">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X77">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AA77">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="AB77">
         <v>0</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD77">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AE77">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="AF77">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="AG77">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AH77">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AI77">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AJ77">
         <v>0</v>
@@ -9970,138 +9975,138 @@
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AM77">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AN77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AO77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B78">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="C78">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="D78">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H78">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I78">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J78">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="M78">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="N78">
+        <v>0.5</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0.5</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0.18</v>
+      </c>
+      <c r="S78">
+        <v>0.32</v>
+      </c>
+      <c r="T78">
+        <v>0.36</v>
+      </c>
+      <c r="U78">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V78">
         <v>0.41</v>
       </c>
-      <c r="O78">
-        <v>0.09</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0.47</v>
-      </c>
-      <c r="R78">
-        <v>0.24</v>
-      </c>
-      <c r="S78">
-        <v>0.26</v>
-      </c>
-      <c r="T78">
-        <v>0.23</v>
-      </c>
-      <c r="U78">
-        <v>0.22</v>
-      </c>
-      <c r="V78">
-        <v>0.5</v>
-      </c>
       <c r="W78">
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="Y78">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Z78">
+        <v>0.08</v>
+      </c>
+      <c r="AA78">
+        <v>0.42</v>
+      </c>
+      <c r="AB78">
+        <v>0.5</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0.34</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0.42</v>
+      </c>
+      <c r="AG78">
+        <v>0.08</v>
+      </c>
+      <c r="AH78">
+        <v>0.01</v>
+      </c>
+      <c r="AI78">
+        <v>0.27</v>
+      </c>
+      <c r="AJ78">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK78">
+        <v>0.18</v>
+      </c>
+      <c r="AL78">
         <v>0.15</v>
       </c>
-      <c r="AA78">
+      <c r="AM78">
         <v>0.35</v>
       </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>0.5</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0.04</v>
-      </c>
-      <c r="AF78">
-        <v>0.47</v>
-      </c>
-      <c r="AG78">
-        <v>0.03</v>
-      </c>
-      <c r="AH78">
-        <v>0.25</v>
-      </c>
-      <c r="AI78">
-        <v>0.25</v>
-      </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
-      <c r="AK78">
-        <v>0</v>
-      </c>
-      <c r="AL78">
-        <v>0.02</v>
-      </c>
-      <c r="AM78">
-        <v>0</v>
-      </c>
       <c r="AN78">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO78">
         <v>0</v>
@@ -10109,73 +10114,73 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B79">
+        <v>0.45</v>
+      </c>
+      <c r="C79">
+        <v>0.05</v>
+      </c>
+      <c r="D79">
+        <v>0.31</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.27</v>
+      </c>
+      <c r="H79">
+        <v>0.38</v>
+      </c>
+      <c r="I79">
         <v>0.12</v>
       </c>
-      <c r="C79">
-        <v>0.38</v>
-      </c>
-      <c r="D79">
-        <v>0.45</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0.37</v>
-      </c>
-      <c r="G79">
-        <v>0.13</v>
-      </c>
-      <c r="H79">
-        <v>0.22</v>
-      </c>
-      <c r="I79">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="J79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="L79">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
       <c r="N79">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T79">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="U79">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="X79">
         <v>0.37</v>
@@ -10184,49 +10189,49 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="AA79">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="AB79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD79">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AE79">
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AG79">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AH79">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="AI79">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="AJ79">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK79">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AL79">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AM79">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AN79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO79">
         <v>0</v>
@@ -10234,415 +10239,415 @@
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B80">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="C80">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G80">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="H80">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
         <v>0.12</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0.31</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
       <c r="M80">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="S80">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U80">
         <v>0</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W80">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="X80">
         <v>0.37</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0.5</v>
+      </c>
+      <c r="AB80">
+        <v>0.5</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0.12</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0.42</v>
+      </c>
+      <c r="AG80">
+        <v>0.08</v>
+      </c>
+      <c r="AH80">
+        <v>0.05</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0.22</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0.03</v>
+      </c>
+      <c r="AN80">
+        <v>0.04</v>
+      </c>
+      <c r="AO80">
         <v>0.17</v>
-      </c>
-      <c r="AA80">
-        <v>0.33</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
-      <c r="AE80">
-        <v>0</v>
-      </c>
-      <c r="AF80">
-        <v>0</v>
-      </c>
-      <c r="AG80">
-        <v>0.12</v>
-      </c>
-      <c r="AH80">
-        <v>0.32</v>
-      </c>
-      <c r="AI80">
-        <v>0.18</v>
-      </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
-      <c r="AK80">
-        <v>0</v>
-      </c>
-      <c r="AL80">
-        <v>0</v>
-      </c>
-      <c r="AM80">
-        <v>0</v>
-      </c>
-      <c r="AN80">
-        <v>0</v>
-      </c>
-      <c r="AO80">
-        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B81">
+        <v>0.44</v>
+      </c>
+      <c r="C81">
+        <v>0.06</v>
+      </c>
+      <c r="D81">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E81">
+        <v>0.36</v>
+      </c>
+      <c r="F81">
+        <v>0.5</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.5</v>
+      </c>
+      <c r="L81">
+        <v>0.22</v>
+      </c>
+      <c r="M81">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0.5</v>
+      </c>
+      <c r="P81">
+        <v>0.5</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0.5</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0.02</v>
+      </c>
+      <c r="W81">
         <v>0.48</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0.25</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0.34</v>
-      </c>
-      <c r="G81">
-        <v>0.16</v>
-      </c>
-      <c r="H81">
-        <v>0.18</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0.12</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0.5</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
+      <c r="X81">
+        <v>0.5</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0.04</v>
+      </c>
+      <c r="AA81">
+        <v>0.46</v>
+      </c>
+      <c r="AB81">
+        <v>0.26</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
         <v>0.41</v>
       </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0.1</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0.5</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0.37</v>
-      </c>
-      <c r="Y81">
-        <v>0.13</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0.5</v>
-      </c>
-      <c r="AB81">
-        <v>0.5</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0.12</v>
-      </c>
       <c r="AE81">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AF81">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="AG81">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="AH81">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="AI81">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AJ81">
-        <v>0.22</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK81">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AL81">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AM81">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="AN81">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="AO81">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B82">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.13</v>
+      </c>
+      <c r="F82">
+        <v>0.33</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.38</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.49</v>
+      </c>
+      <c r="L82">
+        <v>0.5</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0.33</v>
+      </c>
+      <c r="Q82">
+        <v>0.02</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0.32</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0.11</v>
+      </c>
+      <c r="X82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0.03</v>
+      </c>
+      <c r="AB82">
+        <v>0.3</v>
+      </c>
+      <c r="AC82">
         <v>0.06</v>
       </c>
-      <c r="D82">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E82">
-        <v>0.36</v>
-      </c>
-      <c r="F82">
-        <v>0.5</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0.5</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0.5</v>
-      </c>
-      <c r="L82">
-        <v>0.22</v>
-      </c>
-      <c r="M82">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0.5</v>
-      </c>
-      <c r="P82">
-        <v>0.5</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0.5</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0.02</v>
-      </c>
-      <c r="W82">
-        <v>0.48</v>
-      </c>
-      <c r="X82">
-        <v>0.5</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0.04</v>
-      </c>
-      <c r="AA82">
-        <v>0.46</v>
-      </c>
-      <c r="AB82">
-        <v>0.26</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
       <c r="AD82">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="AE82">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF82">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AG82">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="AH82">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AI82">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="AJ82">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK82">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AL82">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AM82">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AN82">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B83">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D83">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F83">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -10654,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -10666,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -10675,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="X83">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -10687,142 +10692,142 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AB83">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0.23</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0.18</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
         <v>0.06</v>
       </c>
-      <c r="AD83">
-        <v>0.32</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <v>0.3</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-      <c r="AI83">
-        <v>0.35</v>
-      </c>
-      <c r="AJ83">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AK83">
-        <v>0</v>
-      </c>
-      <c r="AL83">
-        <v>0</v>
-      </c>
       <c r="AM83">
         <v>0</v>
       </c>
       <c r="AN83">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AO83">
-        <v>0.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B84">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.01</v>
+      </c>
+      <c r="G84">
+        <v>0.49</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0.5</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0.5</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0.5</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0.4</v>
+      </c>
+      <c r="X84">
+        <v>0.02</v>
+      </c>
+      <c r="Y84">
+        <v>0.48</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
         <v>0.22</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0.12</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0.01</v>
-      </c>
-      <c r="I84">
-        <v>0.49</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0.48</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>0</v>
-      </c>
       <c r="AE84">
         <v>0</v>
       </c>
@@ -10830,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="AG84">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AH84">
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AJ84">
         <v>0</v>
@@ -10845,24 +10850,24 @@
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AM84">
         <v>0</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AO84">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -10871,31 +10876,31 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F85">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="G85">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="I85">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L85">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -10904,90 +10909,90 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S85">
         <v>0</v>
       </c>
       <c r="T85">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="V85">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="W85">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="X85">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="Y85">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA85">
         <v>0</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC85">
         <v>0</v>
       </c>
       <c r="AD85">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AF85">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG85">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AH85">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AI85">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AJ85">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AK85">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AL85">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AM85">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AN85">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AO85">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -10996,129 +11001,129 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="X86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA86">
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC86">
         <v>0</v>
       </c>
       <c r="AD86">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AE86">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AF86">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="AG86">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AH86">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AI86">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AJ86">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AK86">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AL86">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AM86">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AN86">
         <v>0</v>
       </c>
       <c r="AO86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -11130,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N87">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -11160,73 +11165,73 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="X87">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AC87">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AD87">
         <v>0</v>
       </c>
       <c r="AE87">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF87">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="AG87">
         <v>0</v>
       </c>
       <c r="AH87">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AI87">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AM87">
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO87">
         <v>0</v>
@@ -11234,19 +11239,19 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B88">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -11255,10 +11260,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J88">
         <v>0.5</v>
@@ -11267,220 +11272,1168 @@
         <v>0</v>
       </c>
       <c r="L88">
+        <v>0.5</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O88">
+        <v>0.36</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0.11</v>
+      </c>
+      <c r="V88">
+        <v>0.31</v>
+      </c>
+      <c r="W88">
+        <v>0.19</v>
+      </c>
+      <c r="X88">
+        <v>0.2</v>
+      </c>
+      <c r="Y88">
         <v>0.3</v>
       </c>
-      <c r="M88">
-        <v>0.2</v>
-      </c>
-      <c r="N88">
-        <v>0.2</v>
-      </c>
-      <c r="O88">
-        <v>0.3</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S88">
-        <v>0.22</v>
-      </c>
-      <c r="T88">
-        <v>0.03</v>
-      </c>
-      <c r="U88">
-        <v>0.47</v>
-      </c>
-      <c r="V88">
-        <v>0.32</v>
-      </c>
-      <c r="W88">
-        <v>0.18</v>
-      </c>
-      <c r="X88">
-        <v>0.24</v>
-      </c>
-      <c r="Y88">
-        <v>0.26</v>
-      </c>
       <c r="Z88">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="AA88">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="AC88">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE88">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH88">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AI88">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL88">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AM88">
         <v>0</v>
       </c>
       <c r="AN88">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="AO88">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>125</v>
-      </c>
-      <c r="B89">
+      <c r="A89" s="1">
+        <v>133</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <v>0</v>
+      </c>
+      <c r="V89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W89" s="1">
+        <v>0</v>
+      </c>
+      <c r="X89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AK89" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AL89" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AM89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AO89" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>134</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="U90" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="V90" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="W90" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="X90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL90" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AM90" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AN90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>135</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <v>0</v>
+      </c>
+      <c r="V91" s="1">
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="X91" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="1">
         <v>0.11</v>
       </c>
-      <c r="C89">
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>130</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0</v>
+      </c>
+      <c r="U92" s="1">
+        <v>0</v>
+      </c>
+      <c r="V92" s="1">
+        <v>0</v>
+      </c>
+      <c r="W92" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="X92" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK92" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AL92" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AO92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>131</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0</v>
+      </c>
+      <c r="W93" s="1">
+        <v>0</v>
+      </c>
+      <c r="X93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>132</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R94" s="1">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U94" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="V94" s="1">
+        <v>0</v>
+      </c>
+      <c r="W94" s="1">
+        <v>0</v>
+      </c>
+      <c r="X94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="AL94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO94" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>102</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="U95" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V95" s="1">
+        <v>0</v>
+      </c>
+      <c r="W95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X95" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI95" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AM95" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AN95" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AO95" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>104</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0</v>
+      </c>
+      <c r="U96" s="1">
+        <v>0</v>
+      </c>
+      <c r="V96" s="1">
+        <v>0</v>
+      </c>
+      <c r="W96" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X96" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>107</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="T97" s="1">
         <v>0.39</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0.5</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0.34</v>
-      </c>
-      <c r="I89">
-        <v>0.16</v>
-      </c>
-      <c r="J89">
-        <v>0.5</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0.5</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O89">
-        <v>0.36</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
+      <c r="U97" s="1">
         <v>0.11</v>
       </c>
-      <c r="V89">
-        <v>0.31</v>
-      </c>
-      <c r="W89">
-        <v>0.19</v>
-      </c>
-      <c r="X89">
-        <v>0.2</v>
-      </c>
-      <c r="Y89">
-        <v>0.3</v>
-      </c>
-      <c r="Z89">
-        <v>0.5</v>
-      </c>
-      <c r="AA89">
-        <v>0</v>
-      </c>
-      <c r="AB89">
-        <v>0.5</v>
-      </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AD89">
-        <v>0.5</v>
-      </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
-      <c r="AF89">
-        <v>0</v>
-      </c>
-      <c r="AG89">
-        <v>0.5</v>
-      </c>
-      <c r="AH89">
-        <v>0.5</v>
-      </c>
-      <c r="AI89">
-        <v>0</v>
-      </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
-      <c r="AK89">
-        <v>0.5</v>
-      </c>
-      <c r="AL89">
-        <v>0</v>
-      </c>
-      <c r="AM89">
-        <v>0</v>
-      </c>
-      <c r="AN89">
-        <v>0.16</v>
-      </c>
-      <c r="AO89">
-        <v>0.34</v>
-      </c>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
